--- a/dataset/training/resumes.xlsx
+++ b/dataset/training/resumes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A481211-3CAD-4208-BF89-EE446F58CC86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37CDF75-67FD-48D2-ACC1-CA8579771275}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -14018,7 +14018,7 @@
   <dimension ref="A1:B155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N91" sqref="N91"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
